--- a/Develop/jaehyun/test/ChatBot/chatbot_data_handover.xlsx
+++ b/Develop/jaehyun/test/ChatBot/chatbot_data_handover.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wogus\OneDrive\바탕 화면\GitHub\Dokkaebi_Box\Develop\jaehyun\test\ChatBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANTL\Desktop\GitHub\Dokkaebi_Box\Develop\jaehyun\test\ChatBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BF981F-2452-4F4F-B7EA-C8AA78A62678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C73F33-3191-4CF3-BC8E-A697D0043867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{52476728-7820-42B9-9744-745D88BAFB62}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52476728-7820-42B9-9744-745D88BAFB62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
   <si>
     <t>request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wallet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,6 +192,22 @@
   </si>
   <si>
     <t>버즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(기타)을(를) 맡기러 오셨군요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11월 3일 10시 47분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월|일|시|분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,21 +572,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1373A46-C6FB-4AE1-AE85-9F8568CCDA82}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="38.08203125" customWidth="1"/>
-    <col min="3" max="3" width="40.83203125" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.125" customWidth="1"/>
+    <col min="3" max="3" width="40.875" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -591,7 +603,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -608,7 +620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -625,7 +637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -642,7 +654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -659,7 +671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -676,7 +688,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -693,7 +705,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -710,7 +722,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -724,10 +736,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -741,10 +753,10 @@
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -758,10 +770,10 @@
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -775,10 +787,10 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -786,64 +798,75 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
       <c r="D16" t="s">
         <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Develop/jaehyun/test/ChatBot/chatbot_data_handover.xlsx
+++ b/Develop/jaehyun/test/ChatBot/chatbot_data_handover.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANTL\Desktop\GitHub\Dokkaebi_Box\Develop\jaehyun\test\ChatBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C73F33-3191-4CF3-BC8E-A697D0043867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D981373-5F49-4A0F-B73D-E84209E5A015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52476728-7820-42B9-9744-745D88BAFB62}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
   <si>
     <t>request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,10 @@
   </si>
   <si>
     <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>classification</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1373A46-C6FB-4AE1-AE85-9F8568CCDA82}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -614,7 +618,7 @@
         <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>

--- a/Develop/jaehyun/test/ChatBot/chatbot_data_handover.xlsx
+++ b/Develop/jaehyun/test/ChatBot/chatbot_data_handover.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANTL\Desktop\GitHub\Dokkaebi_Box\Develop\jaehyun\test\ChatBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D981373-5F49-4A0F-B73D-E84209E5A015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B80ADD0-3665-4DE4-A09B-07BAEC163521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52476728-7820-42B9-9744-745D88BAFB62}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
   <si>
     <t>request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,6 +212,10 @@
   </si>
   <si>
     <t>classification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iphone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1373A46-C6FB-4AE1-AE85-9F8568CCDA82}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -728,27 +732,27 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -762,10 +766,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -779,10 +783,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -796,27 +800,27 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>40</v>
@@ -830,10 +834,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>40</v>
@@ -847,10 +851,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
@@ -862,14 +866,31 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>42</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>43</v>
       </c>
     </row>

--- a/Develop/jaehyun/test/ChatBot/chatbot_data_handover.xlsx
+++ b/Develop/jaehyun/test/ChatBot/chatbot_data_handover.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANTL\Desktop\GitHub\Dokkaebi_Box\Develop\jaehyun\test\ChatBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wogus\OneDrive\바탕 화면\GitHub\Dokkaebi_Box\Develop\jaehyun\test\ChatBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B80ADD0-3665-4DE4-A09B-07BAEC163521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55CF6AA-FADD-4B34-84A7-FC8CFEACA428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52476728-7820-42B9-9744-745D88BAFB62}"/>
+    <workbookView xWindow="13000" yWindow="850" windowWidth="11540" windowHeight="11170" xr2:uid="{52476728-7820-42B9-9744-745D88BAFB62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
   <si>
     <t>request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,7 +215,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iphone</t>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it's a iphone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it's a galaxy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>galaxy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,21 +592,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1373A46-C6FB-4AE1-AE85-9F8568CCDA82}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="38.125" customWidth="1"/>
-    <col min="3" max="3" width="40.875" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="38.08203125" customWidth="1"/>
+    <col min="3" max="3" width="40.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -611,7 +623,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -628,7 +640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -645,7 +657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -662,7 +674,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -679,7 +691,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -696,7 +708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -713,7 +725,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -730,9 +742,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
@@ -747,29 +759,29 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -781,12 +793,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -798,12 +810,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -815,46 +827,46 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
       </c>
       <c r="C16" t="s">
         <v>40</v>
@@ -866,12 +878,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
@@ -883,14 +895,48 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>42</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D20" t="s">
         <v>43</v>
       </c>
     </row>

--- a/Develop/jaehyun/test/ChatBot/chatbot_data_handover.xlsx
+++ b/Develop/jaehyun/test/ChatBot/chatbot_data_handover.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wogus\OneDrive\바탕 화면\GitHub\Dokkaebi_Box\Develop\jaehyun\test\ChatBot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55CF6AA-FADD-4B34-84A7-FC8CFEACA428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BD0086-9FD3-4FDB-BF26-01182001E84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13000" yWindow="850" windowWidth="11540" windowHeight="11170" xr2:uid="{52476728-7820-42B9-9744-745D88BAFB62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{52476728-7820-42B9-9744-745D88BAFB62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
   <si>
     <t>request</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +228,22 @@
   </si>
   <si>
     <t>galaxy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I want to leave a cellphone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/11 15:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/|:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you want to leave a cellphone?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -274,8 +290,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -592,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1373A46-C6FB-4AE1-AE85-9F8568CCDA82}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -744,13 +763,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -761,13 +780,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -778,27 +797,27 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
@@ -812,10 +831,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
@@ -829,10 +848,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -846,10 +865,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
@@ -863,27 +882,27 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
@@ -897,10 +916,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>40</v>
@@ -914,10 +933,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
         <v>40</v>
@@ -931,12 +950,40 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>41</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>42</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
         <v>43</v>
       </c>
     </row>
